--- a/data/1010/1010_WBS.xlsx
+++ b/data/1010/1010_WBS.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,7 +656,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>전산장비 24시간 운영</t>
+          <t>콘텐츠 콘셉트 기획</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -700,7 +700,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>월 1회 정기점검</t>
+          <t>촬영 장소 섭외 및 현장실사</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>정품 부품 사용</t>
+          <t>촬영 장비 설치 및 세팅</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>연구원 협의 반영</t>
+          <t>펠로우 인터뷰 영상 촬영 및 편집</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -832,7 +832,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>보고 체계 유지</t>
+          <t>펠로우 인터뷰 하이라이트 영상 제작</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -873,12 +873,12 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>재배치 무상재구성</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -920,7 +920,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>통합 점검</t>
+          <t>펠로우 프로필 사진 촬영 및 보정</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -964,7 +964,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>분기 현장점검</t>
+          <t>현장 사진 및 메이킹 필름 제작</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1005,12 +1005,12 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Phase 2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>납품 일정 준수</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>패치/업데이트 관리</t>
+          <t>고해상도 원본 포함 제출</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>원격/방문 점검</t>
+          <t>예산 한도 준수</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1137,12 +1137,12 @@
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>긴급 장애 4시간 대응</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1184,7 +1184,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OS/오피스 설치</t>
+          <t>제안 서류 제출 요건 준수</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>환경설정 지원</t>
+          <t>기밀정보 관리</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예비부품 상시보유</t>
+          <t>추가 제안 요청 시 비용 부담</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FAQ/매뉴얼 운영</t>
+          <t>최종 납품물 구성 명시</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1355,402 +1355,6 @@
       </c>
       <c r="V19" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>IP/NAC 관리</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Phase 3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SW 자산 관리</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>정보보안 사고 대응</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>상주 보안점검</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>개인정보 진단 자료 작성</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>상주인력 정규직</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>대체인력 투입</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>근무시간 운영</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
